--- a/FNCE 449 term project data/CHX/CHX Earnings surprise.xlsx
+++ b/FNCE 449 term project data/CHX/CHX Earnings surprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.nguyen1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namnguyenvu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6EBDDA-915C-4B22-8248-698BBAFE9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72259FB3-3BC6-4843-A719-CDB8468865EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
   <si>
     <t>Ann Date</t>
   </si>
@@ -515,13 +515,19 @@
   </si>
   <si>
     <t>03/17</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +669,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1013,10 +1032,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1077,9 +1099,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1117,9 +1139,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,9 +1174,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,9 +1226,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1363,70 +1419,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="13" width="10.42578125" customWidth="1"/>
+    <col min="1" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="13" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1445,8 +1507,9 @@
       <c r="M3">
         <v>15.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1465,8 +1528,9 @@
       <c r="M4">
         <v>16.62</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1485,8 +1549,9 @@
       <c r="M5">
         <v>16.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1570,9 @@
       <c r="M6">
         <v>18.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1537,8 +1603,11 @@
       <c r="M7">
         <v>20.010000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1569,8 +1638,11 @@
       <c r="M8">
         <v>20.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5">
+        <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1601,8 +1673,11 @@
       <c r="M9">
         <v>17.809999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1633,8 +1708,11 @@
       <c r="M10">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1665,8 +1743,11 @@
       <c r="M11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1697,8 +1778,11 @@
       <c r="M12">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5">
+        <v>37.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1729,8 +1813,11 @@
       <c r="M13">
         <v>18.23</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1761,8 +1848,11 @@
       <c r="M14">
         <v>13.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1793,8 +1883,11 @@
       <c r="M15">
         <v>21.81</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5">
+        <v>33.840000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1825,8 +1918,11 @@
       <c r="M16">
         <v>32.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5">
+        <v>38.619999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1857,8 +1953,11 @@
       <c r="M17">
         <v>32.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5">
+        <v>33.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -1889,8 +1988,11 @@
       <c r="M18">
         <v>50.82</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -1921,8 +2023,11 @@
       <c r="M19">
         <v>80.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -1950,8 +2055,11 @@
       <c r="L20">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -1979,8 +2087,11 @@
       <c r="L21">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="5">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -2008,8 +2119,11 @@
       <c r="L22">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2040,8 +2154,11 @@
       <c r="M23">
         <v>108.44</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="5">
+        <v>16.239999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -2072,8 +2189,11 @@
       <c r="M24">
         <v>6.61</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -2104,8 +2224,11 @@
       <c r="M25">
         <v>35.56</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="5">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2136,8 +2259,11 @@
       <c r="M26">
         <v>22.36</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="5">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -2168,8 +2294,11 @@
       <c r="M27">
         <v>25.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="5">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -2200,8 +2329,11 @@
       <c r="M28">
         <v>29.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="5">
+        <v>32.909999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -2232,8 +2364,11 @@
       <c r="M29">
         <v>20.83</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="5">
+        <v>33.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -2264,8 +2399,11 @@
       <c r="M30">
         <v>38.21</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="5">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -2296,8 +2434,11 @@
       <c r="M31">
         <v>41.34</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="5">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -2325,8 +2466,11 @@
       <c r="L32">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="5">
+        <v>39.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -2345,8 +2489,11 @@
       <c r="L33">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" s="5">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -2362,8 +2509,11 @@
       <c r="K34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34" s="5">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -2379,8 +2529,11 @@
       <c r="K35" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="5">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -2398,6 +2551,9 @@
       </c>
       <c r="K36" t="s">
         <v>155</v>
+      </c>
+      <c r="N36" s="5">
+        <v>39.18</v>
       </c>
     </row>
   </sheetData>
